--- a/src/test/resources/testData/GoogleCalculator.xlsx
+++ b/src/test/resources/testData/GoogleCalculator.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="74">
   <si>
     <t>Execution Flag</t>
   </si>
@@ -189,6 +189,66 @@
   </si>
   <si>
     <t>2017-08-24T12:40:39.895</t>
+  </si>
+  <si>
+    <t>2017-09-06T18:48:37.994</t>
+  </si>
+  <si>
+    <t>2017-09-06T18:48:42.410</t>
+  </si>
+  <si>
+    <t>2017-09-06T18:48:49.012</t>
+  </si>
+  <si>
+    <t>2017-09-06T18:48:55.381</t>
+  </si>
+  <si>
+    <t>4 +</t>
+  </si>
+  <si>
+    <t>2017-11-05T00:00:06.783</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2017-11-05T00:00:11.234</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2017-11-05T00:00:28.020</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>2017-11-05T00:00:49.610</t>
+  </si>
+  <si>
+    <t>2017-11-05T11:44:15.773</t>
+  </si>
+  <si>
+    <t>2017-11-05T11:44:20.247</t>
+  </si>
+  <si>
+    <t>2017-11-05T11:44:26.681</t>
+  </si>
+  <si>
+    <t>2017-11-05T11:44:33.005</t>
+  </si>
+  <si>
+    <t>2017-11-05T11:45:09.002</t>
+  </si>
+  <si>
+    <t>2017-11-05T11:45:13.474</t>
+  </si>
+  <si>
+    <t>2017-11-05T11:45:19.949</t>
+  </si>
+  <si>
+    <t>2017-11-05T11:45:26.297</t>
   </si>
 </sst>
 </file>
@@ -565,13 +625,13 @@
         <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -608,13 +668,13 @@
         <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -634,13 +694,13 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -660,13 +720,13 @@
         <v>-20</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row ht="20" r="7" spans="1:8" x14ac:dyDescent="0.2">

--- a/src/test/resources/testData/GoogleCalculator.xlsx
+++ b/src/test/resources/testData/GoogleCalculator.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="78">
   <si>
     <t>Execution Flag</t>
   </si>
@@ -249,6 +249,18 @@
   </si>
   <si>
     <t>2017-11-05T11:45:26.297</t>
+  </si>
+  <si>
+    <t>2017-11-17T13:00:00.585</t>
+  </si>
+  <si>
+    <t>2017-11-17T13:00:20.614</t>
+  </si>
+  <si>
+    <t>2017-11-17T13:00:27.319</t>
+  </si>
+  <si>
+    <t>2017-11-17T13:00:33.847</t>
   </si>
 </sst>
 </file>
@@ -631,7 +643,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -674,7 +686,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -700,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -726,7 +738,7 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row ht="20" r="7" spans="1:8" x14ac:dyDescent="0.2">
